--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H2">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J2">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>198.1760075579738</v>
+        <v>597.951800248445</v>
       </c>
       <c r="R2">
-        <v>1783.584068021764</v>
+        <v>5381.566202236005</v>
       </c>
       <c r="S2">
-        <v>0.0008696965945641218</v>
+        <v>0.00158031226907762</v>
       </c>
       <c r="T2">
-        <v>0.0008696965945641218</v>
+        <v>0.00158031226907762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H3">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J3">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>1414.439149607194</v>
+        <v>2351.25715234869</v>
       </c>
       <c r="R3">
-        <v>12729.95234646475</v>
+        <v>21161.31437113821</v>
       </c>
       <c r="S3">
-        <v>0.006207274668562944</v>
+        <v>0.006214080339032819</v>
       </c>
       <c r="T3">
-        <v>0.006207274668562945</v>
+        <v>0.006214080339032819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H4">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J4">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>1383.186035098941</v>
+        <v>2176.303102428817</v>
       </c>
       <c r="R4">
-        <v>12448.67431589047</v>
+        <v>19586.72792185935</v>
       </c>
       <c r="S4">
-        <v>0.006070120188601999</v>
+        <v>0.005751698535853502</v>
       </c>
       <c r="T4">
-        <v>0.006070120188602</v>
+        <v>0.005751698535853503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H5">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J5">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>403.4667062406809</v>
+        <v>565.2692958811084</v>
       </c>
       <c r="R5">
-        <v>3631.200356166128</v>
+        <v>5087.423662929975</v>
       </c>
       <c r="S5">
-        <v>0.001770616053685882</v>
+        <v>0.001493936473211757</v>
       </c>
       <c r="T5">
-        <v>0.001770616053685882</v>
+        <v>0.001493936473211757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H6">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J6">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>600.4489067393924</v>
+        <v>1089.189430887561</v>
       </c>
       <c r="R6">
-        <v>5404.040160654532</v>
+        <v>9802.704877988044</v>
       </c>
       <c r="S6">
-        <v>0.002635073618829638</v>
+        <v>0.002878592254870895</v>
       </c>
       <c r="T6">
-        <v>0.002635073618829638</v>
+        <v>0.002878592254870894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.81532133333333</v>
+        <v>32.93949833333333</v>
       </c>
       <c r="H7">
-        <v>59.445964</v>
+        <v>98.818495</v>
       </c>
       <c r="I7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682078</v>
       </c>
       <c r="J7">
-        <v>0.02448901563336021</v>
+        <v>0.02571831923682077</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>1580.545757099696</v>
+        <v>2951.216900496204</v>
       </c>
       <c r="R7">
-        <v>14224.91181389726</v>
+        <v>26560.95210446584</v>
       </c>
       <c r="S7">
-        <v>0.006936234509115627</v>
+        <v>0.007799699364774186</v>
       </c>
       <c r="T7">
-        <v>0.006936234509115628</v>
+        <v>0.007799699364774184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J8">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>5303.605524582733</v>
+        <v>9626.54523708616</v>
       </c>
       <c r="R8">
-        <v>47732.4497212446</v>
+        <v>86638.90713377546</v>
       </c>
       <c r="S8">
-        <v>0.02327490456831275</v>
+        <v>0.0254417622635756</v>
       </c>
       <c r="T8">
-        <v>0.02327490456831275</v>
+        <v>0.0254417622635756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J9">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>37853.35763133848</v>
@@ -1013,10 +1013,10 @@
         <v>340680.2186820463</v>
       </c>
       <c r="S9">
-        <v>0.1661196863861651</v>
+        <v>0.1000417181882089</v>
       </c>
       <c r="T9">
-        <v>0.1661196863861651</v>
+        <v>0.100041718188209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J10">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>37016.95875132825</v>
+        <v>35036.73750365373</v>
       </c>
       <c r="R10">
-        <v>333152.6287619543</v>
+        <v>315330.6375328837</v>
       </c>
       <c r="S10">
-        <v>0.1624491448982943</v>
+        <v>0.09259774136054197</v>
       </c>
       <c r="T10">
-        <v>0.1624491448982943</v>
+        <v>0.092597741360542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J11">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>10797.61510271265</v>
+        <v>9100.383083844528</v>
       </c>
       <c r="R11">
-        <v>97178.53592441385</v>
+        <v>81903.44775460075</v>
       </c>
       <c r="S11">
-        <v>0.04738539846452508</v>
+        <v>0.02405118110645463</v>
       </c>
       <c r="T11">
-        <v>0.04738539846452508</v>
+        <v>0.02405118110645463</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J12">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>16069.27184705297</v>
+        <v>17535.07778359181</v>
       </c>
       <c r="R12">
-        <v>144623.4466234767</v>
+        <v>157815.7000523262</v>
       </c>
       <c r="S12">
-        <v>0.07052009561964137</v>
+        <v>0.04634303057391386</v>
       </c>
       <c r="T12">
-        <v>0.07052009561964137</v>
+        <v>0.04634303057391386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="J13">
-        <v>0.6553774102381563</v>
+        <v>0.4140443484779395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>42298.71876270152</v>
+        <v>47512.22922194689</v>
       </c>
       <c r="R13">
-        <v>380688.4688643137</v>
+        <v>427610.0629975221</v>
       </c>
       <c r="S13">
-        <v>0.1856281803012177</v>
+        <v>0.1255689149852445</v>
       </c>
       <c r="T13">
-        <v>0.1856281803012177</v>
+        <v>0.1255689149852445</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H14">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J14">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>1141.682963157755</v>
+        <v>7663.861927805279</v>
       </c>
       <c r="R14">
-        <v>10275.14666841979</v>
+        <v>68974.75735024751</v>
       </c>
       <c r="S14">
-        <v>0.005010282512829966</v>
+        <v>0.0202546342832238</v>
       </c>
       <c r="T14">
-        <v>0.005010282512829966</v>
+        <v>0.0202546342832238</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H15">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J15">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>8148.519588363773</v>
+        <v>30135.72358989122</v>
       </c>
       <c r="R15">
-        <v>73336.67629527397</v>
+        <v>271221.512309021</v>
       </c>
       <c r="S15">
-        <v>0.03575982695415781</v>
+        <v>0.07964497089372345</v>
       </c>
       <c r="T15">
-        <v>0.03575982695415782</v>
+        <v>0.07964497089372345</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H16">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J16">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>7968.471817599935</v>
+        <v>27893.3627813124</v>
       </c>
       <c r="R16">
-        <v>71716.24635839942</v>
+        <v>251040.2650318116</v>
       </c>
       <c r="S16">
-        <v>0.03496968623519937</v>
+        <v>0.07371869005298752</v>
       </c>
       <c r="T16">
-        <v>0.03496968623519937</v>
+        <v>0.07371869005298752</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H17">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J17">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>2324.353338189077</v>
+        <v>7244.974986044939</v>
       </c>
       <c r="R17">
-        <v>20919.18004370169</v>
+        <v>65204.77487440444</v>
       </c>
       <c r="S17">
-        <v>0.01020043852783456</v>
+        <v>0.01914756817330453</v>
       </c>
       <c r="T17">
-        <v>0.01020043852783456</v>
+        <v>0.01914756817330453</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H18">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J18">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>3459.158833192881</v>
+        <v>13959.98374464093</v>
       </c>
       <c r="R18">
-        <v>31132.42949873592</v>
+        <v>125639.8537017684</v>
       </c>
       <c r="S18">
-        <v>0.01518053923053312</v>
+        <v>0.03689450149429092</v>
       </c>
       <c r="T18">
-        <v>0.01518053923053312</v>
+        <v>0.03689450149429092</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.1551646666667</v>
+        <v>422.1807963333333</v>
       </c>
       <c r="H19">
-        <v>342.465494</v>
+        <v>1266.542389</v>
       </c>
       <c r="I19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087694</v>
       </c>
       <c r="J19">
-        <v>0.1410801048907614</v>
+        <v>0.3296279860087693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>9105.452196800969</v>
+        <v>37825.32109613325</v>
       </c>
       <c r="R19">
-        <v>81949.06977120873</v>
+        <v>340427.8898651992</v>
       </c>
       <c r="S19">
-        <v>0.03995933143020661</v>
+        <v>0.09996762111123914</v>
       </c>
       <c r="T19">
-        <v>0.03995933143020661</v>
+        <v>0.09996762111123912</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H20">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I20">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J20">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>563.371859088802</v>
+        <v>299.693214197712</v>
       </c>
       <c r="R20">
-        <v>5070.346731799218</v>
+        <v>2697.238927779408</v>
       </c>
       <c r="S20">
-        <v>0.002472360773437507</v>
+        <v>0.0007920519064566241</v>
       </c>
       <c r="T20">
-        <v>0.002472360773437508</v>
+        <v>0.0007920519064566242</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H21">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I21">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J21">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>4020.946950649814</v>
+        <v>1178.449187877616</v>
       </c>
       <c r="R21">
-        <v>36188.52255584833</v>
+        <v>10606.04269089854</v>
       </c>
       <c r="S21">
-        <v>0.01764594974434597</v>
+        <v>0.003114494695582106</v>
       </c>
       <c r="T21">
-        <v>0.01764594974434598</v>
+        <v>0.003114494695582107</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H22">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I22">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J22">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>3932.101053309396</v>
+        <v>1090.76228479344</v>
       </c>
       <c r="R22">
-        <v>35388.90947978457</v>
+        <v>9816.860563140961</v>
       </c>
       <c r="S22">
-        <v>0.01725604899243305</v>
+        <v>0.002882749112202698</v>
       </c>
       <c r="T22">
-        <v>0.01725604899243305</v>
+        <v>0.002882749112202699</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H23">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I23">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J23">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>1146.969258166904</v>
+        <v>283.31275547544</v>
       </c>
       <c r="R23">
-        <v>10322.72332350214</v>
+        <v>2549.81479927896</v>
       </c>
       <c r="S23">
-        <v>0.005033481450097754</v>
+        <v>0.0007487603905164256</v>
       </c>
       <c r="T23">
-        <v>0.005033481450097755</v>
+        <v>0.0007487603905164256</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H24">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I24">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J24">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>1706.947379988226</v>
+        <v>545.901327293008</v>
       </c>
       <c r="R24">
-        <v>15362.52641989403</v>
+        <v>4913.111945637072</v>
       </c>
       <c r="S24">
-        <v>0.007490948787237181</v>
+        <v>0.00144274934011145</v>
       </c>
       <c r="T24">
-        <v>0.007490948787237182</v>
+        <v>0.00144274934011145</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.330706</v>
+        <v>16.509264</v>
       </c>
       <c r="H25">
-        <v>168.992118</v>
+        <v>49.527792</v>
       </c>
       <c r="I25">
-        <v>0.06961701587708551</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="J25">
-        <v>0.06961701587708552</v>
+        <v>0.01289001179132366</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>4493.15238774143</v>
+        <v>1479.148784796416</v>
       </c>
       <c r="R25">
-        <v>40438.37148967287</v>
+        <v>13312.33906316774</v>
       </c>
       <c r="S25">
-        <v>0.01971822612953404</v>
+        <v>0.003909206346454355</v>
       </c>
       <c r="T25">
-        <v>0.01971822612953405</v>
+        <v>0.003909206346454355</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H26">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J26">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>462.2593924558907</v>
+        <v>810.0054265660749</v>
       </c>
       <c r="R26">
-        <v>4160.334532103016</v>
+        <v>7290.048839094675</v>
       </c>
       <c r="S26">
-        <v>0.002028628108811612</v>
+        <v>0.002140743640356902</v>
       </c>
       <c r="T26">
-        <v>0.002028628108811612</v>
+        <v>0.002140743640356902</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H27">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J27">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>3299.278202342313</v>
+        <v>3185.091259635669</v>
       </c>
       <c r="R27">
-        <v>29693.50382108082</v>
+        <v>28665.82133672102</v>
       </c>
       <c r="S27">
-        <v>0.01447890212571444</v>
+        <v>0.008417800220089275</v>
       </c>
       <c r="T27">
-        <v>0.01447890212571444</v>
+        <v>0.008417800220089276</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H28">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J28">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>3226.378127792607</v>
+        <v>2948.092675843583</v>
       </c>
       <c r="R28">
-        <v>29037.40315013346</v>
+        <v>26532.83408259225</v>
       </c>
       <c r="S28">
-        <v>0.01415897971249899</v>
+        <v>0.007791442427429334</v>
       </c>
       <c r="T28">
-        <v>0.01415897971249899</v>
+        <v>0.007791442427429336</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H29">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J29">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>941.1142993605648</v>
+        <v>765.7326174862917</v>
       </c>
       <c r="R29">
-        <v>8470.028694245084</v>
+        <v>6891.593557376625</v>
       </c>
       <c r="S29">
-        <v>0.004130085732048296</v>
+        <v>0.002023736110073955</v>
       </c>
       <c r="T29">
-        <v>0.004130085732048296</v>
+        <v>0.002023736110073955</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H30">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J30">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>1400.589053389613</v>
+        <v>1475.452284299119</v>
       </c>
       <c r="R30">
-        <v>12605.30148050652</v>
+        <v>13279.07055869207</v>
       </c>
       <c r="S30">
-        <v>0.00614649343846731</v>
+        <v>0.003899436955198902</v>
       </c>
       <c r="T30">
-        <v>0.00614649343846731</v>
+        <v>0.003899436955198902</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.22062233333333</v>
+        <v>44.62094166666666</v>
       </c>
       <c r="H31">
-        <v>138.661867</v>
+        <v>133.862825</v>
       </c>
       <c r="I31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="J31">
-        <v>0.05712234103418551</v>
+        <v>0.03483889192294087</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>3686.73347711835</v>
+        <v>3997.816719311155</v>
       </c>
       <c r="R31">
-        <v>33180.60129406516</v>
+        <v>35980.3504738004</v>
       </c>
       <c r="S31">
-        <v>0.01617925191664486</v>
+        <v>0.01056573256979251</v>
       </c>
       <c r="T31">
-        <v>0.01617925191664486</v>
+        <v>0.01056573256979251</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H32">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J32">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>423.3490669862791</v>
+        <v>4251.976532888753</v>
       </c>
       <c r="R32">
-        <v>3810.141602876512</v>
+        <v>38267.78879599879</v>
       </c>
       <c r="S32">
-        <v>0.001857869912744899</v>
+        <v>0.01123744535924523</v>
       </c>
       <c r="T32">
-        <v>0.001857869912744899</v>
+        <v>0.01123744535924523</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H33">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J33">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>3021.564021163865</v>
+        <v>16719.55871764175</v>
       </c>
       <c r="R33">
-        <v>27194.07619047479</v>
+        <v>150476.0284587758</v>
       </c>
       <c r="S33">
-        <v>0.0132601517804568</v>
+        <v>0.04418771507013562</v>
       </c>
       <c r="T33">
-        <v>0.01326015178045681</v>
+        <v>0.04418771507013562</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H34">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J34">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>2954.800253790997</v>
+        <v>15475.47764909398</v>
       </c>
       <c r="R34">
-        <v>26593.20228411898</v>
+        <v>139279.2988418458</v>
       </c>
       <c r="S34">
-        <v>0.01296715858799142</v>
+        <v>0.04089976347347454</v>
       </c>
       <c r="T34">
-        <v>0.01296715858799142</v>
+        <v>0.04089976347347454</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H35">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J35">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>861.8967338770915</v>
+        <v>4019.57445374423</v>
       </c>
       <c r="R35">
-        <v>7757.070604893824</v>
+        <v>36176.17008369807</v>
       </c>
       <c r="S35">
-        <v>0.003782438972081741</v>
+        <v>0.01062323555691895</v>
       </c>
       <c r="T35">
-        <v>0.003782438972081741</v>
+        <v>0.01062323555691895</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H36">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J36">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>1282.695557214162</v>
+        <v>7745.119084983318</v>
       </c>
       <c r="R36">
-        <v>11544.26001492745</v>
+        <v>69706.07176484987</v>
       </c>
       <c r="S36">
-        <v>0.005629117125317724</v>
+        <v>0.02046938684753662</v>
       </c>
       <c r="T36">
-        <v>0.005629117125317724</v>
+        <v>0.02046938684753662</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>42.33003733333333</v>
+        <v>234.229538</v>
       </c>
       <c r="H37">
-        <v>126.990112</v>
+        <v>702.6886139999999</v>
       </c>
       <c r="I37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="J37">
-        <v>0.05231411232645103</v>
+        <v>0.1828804425622059</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>3376.405548999342</v>
+        <v>20985.81357086094</v>
       </c>
       <c r="R37">
-        <v>30387.64994099408</v>
+        <v>188872.3221377484</v>
       </c>
       <c r="S37">
-        <v>0.01481737594785843</v>
+        <v>0.05546289625489492</v>
       </c>
       <c r="T37">
-        <v>0.01481737594785844</v>
+        <v>0.05546289625489492</v>
       </c>
     </row>
   </sheetData>
